--- a/文档/BKI2200上下位机 通讯指令_20200710.xlsx
+++ b/文档/BKI2200上下位机 通讯指令_20200710.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\指令相关\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\codingCheckOut2\Document\trunk\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5228FBE8-7C61-4322-BAAC-1ED4373AADFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA050D7-0E2F-4D5B-B988-5D79CCC8D9C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="修改历史" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="417">
   <si>
     <t>序号</t>
   </si>
@@ -3162,6 +3162,118 @@
   </si>
   <si>
     <t>已去掉运行灯</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2写入测试</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>泵阀调试</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>泵阀工装调试</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>EB 90 F0 01 AA BB CC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DD EE FF</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA：模块
+02：清洗板
+BB：
+01：蠕动泵
+02：计量泵
+03：混匀电机
+CC DD EE FF：动作步数</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA：模块
+05：加样板
+BB：
+01：齿轮泵
+02：隔膜泵
+03：电磁阀
+04：托马斯泵
+CC DD EE FF：动作步数</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA：模块
+09：温育板
+BB：
+01：混匀电机
+CC DD EE FF：动作步数</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA：模块
+03：计数器板
+BB：
+01：读数</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>EB 90 01 A0 … CC DD EE FF</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">EB 90 01 A0 </t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>EB 90 F0 01 AA BB CC DD</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>EB 90 01 A0 CC DD</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA:模块
+01：通信板 02：清洗板 03：计数器板
+04：理杯机板 05：加样板 06：液位探测板
+07：加热板 08：制冷板 09：温育板
+BB:
+00:代表E2测试
+CC DD：写入任意十六进制测试参数</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>E2工装写入测试</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -3704,7 +3816,7 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="279">
+  <cellXfs count="283">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4265,6 +4377,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4300,15 +4415,105 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="5" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4318,95 +4523,35 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="5" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4414,9 +4559,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4429,33 +4571,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4539,6 +4654,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -4909,13 +5033,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="188" t="s">
         <v>315</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="149" t="s">
@@ -4962,10 +5086,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5009,7 +5133,7 @@
     </row>
     <row r="2" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="56"/>
-      <c r="B2" s="190" t="s">
+      <c r="B2" s="191" t="s">
         <v>220</v>
       </c>
       <c r="C2" s="107" t="s">
@@ -5024,14 +5148,14 @@
       <c r="F2" s="109" t="s">
         <v>294</v>
       </c>
-      <c r="G2" s="189" t="s">
+      <c r="G2" s="190" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="94"/>
     </row>
     <row r="3" spans="1:8" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="56"/>
-      <c r="B3" s="191"/>
+      <c r="B3" s="192"/>
       <c r="C3" s="95" t="s">
         <v>226</v>
       </c>
@@ -5044,12 +5168,12 @@
       <c r="F3" s="96" t="s">
         <v>295</v>
       </c>
-      <c r="G3" s="189"/>
+      <c r="G3" s="190"/>
       <c r="H3" s="96"/>
     </row>
     <row r="4" spans="1:8" ht="81" x14ac:dyDescent="0.15">
       <c r="A4" s="56"/>
-      <c r="B4" s="191"/>
+      <c r="B4" s="192"/>
       <c r="C4" s="95" t="s">
         <v>227</v>
       </c>
@@ -5062,12 +5186,12 @@
       <c r="F4" s="96" t="s">
         <v>296</v>
       </c>
-      <c r="G4" s="189"/>
+      <c r="G4" s="190"/>
       <c r="H4" s="96"/>
     </row>
     <row r="5" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="56"/>
-      <c r="B5" s="192"/>
+      <c r="B5" s="193"/>
       <c r="C5" s="106" t="s">
         <v>228</v>
       </c>
@@ -5078,12 +5202,12 @@
         <v>224</v>
       </c>
       <c r="F5" s="96"/>
-      <c r="G5" s="189"/>
+      <c r="G5" s="190"/>
       <c r="H5" s="96"/>
     </row>
     <row r="6" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="56"/>
-      <c r="B6" s="195" t="s">
+      <c r="B6" s="196" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="107" t="s">
@@ -5098,12 +5222,12 @@
       <c r="F6" s="109" t="s">
         <v>191</v>
       </c>
-      <c r="G6" s="189"/>
+      <c r="G6" s="190"/>
       <c r="H6" s="94"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="56"/>
-      <c r="B7" s="195"/>
+      <c r="B7" s="196"/>
       <c r="C7" s="110" t="s">
         <v>11</v>
       </c>
@@ -5114,13 +5238,13 @@
         <v>195</v>
       </c>
       <c r="F7" s="109"/>
-      <c r="G7" s="189"/>
+      <c r="G7" s="190"/>
       <c r="H7" s="94"/>
     </row>
     <row r="8" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="56"/>
-      <c r="B8" s="195"/>
-      <c r="C8" s="197" t="s">
+      <c r="B8" s="196"/>
+      <c r="C8" s="198" t="s">
         <v>331</v>
       </c>
       <c r="D8" s="95" t="s">
@@ -5130,13 +5254,13 @@
         <v>196</v>
       </c>
       <c r="F8" s="94"/>
-      <c r="G8" s="189"/>
+      <c r="G8" s="190"/>
       <c r="H8" s="94"/>
     </row>
     <row r="9" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="56"/>
-      <c r="B9" s="195"/>
-      <c r="C9" s="197"/>
+      <c r="B9" s="196"/>
+      <c r="C9" s="198"/>
       <c r="D9" s="95" t="s">
         <v>13</v>
       </c>
@@ -5146,15 +5270,15 @@
       <c r="F9" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="189"/>
+      <c r="G9" s="190"/>
       <c r="H9" s="96" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="56"/>
-      <c r="B10" s="195"/>
-      <c r="C10" s="198"/>
+      <c r="B10" s="196"/>
+      <c r="C10" s="199"/>
       <c r="D10" s="95" t="s">
         <v>16</v>
       </c>
@@ -5162,13 +5286,13 @@
         <v>198</v>
       </c>
       <c r="F10" s="94"/>
-      <c r="G10" s="189"/>
+      <c r="G10" s="190"/>
       <c r="H10" s="94"/>
     </row>
     <row r="11" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="56"/>
-      <c r="B11" s="195"/>
-      <c r="C11" s="193" t="s">
+      <c r="B11" s="196"/>
+      <c r="C11" s="194" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="97" t="s">
@@ -5178,13 +5302,13 @@
         <v>199</v>
       </c>
       <c r="F11" s="94"/>
-      <c r="G11" s="189"/>
+      <c r="G11" s="190"/>
       <c r="H11" s="94"/>
     </row>
     <row r="12" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="56"/>
-      <c r="B12" s="195"/>
-      <c r="C12" s="193"/>
+      <c r="B12" s="196"/>
+      <c r="C12" s="194"/>
       <c r="D12" s="97" t="s">
         <v>13</v>
       </c>
@@ -5192,13 +5316,13 @@
         <v>200</v>
       </c>
       <c r="F12" s="94"/>
-      <c r="G12" s="189"/>
+      <c r="G12" s="190"/>
       <c r="H12" s="94"/>
     </row>
     <row r="13" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="56"/>
-      <c r="B13" s="195"/>
-      <c r="C13" s="193"/>
+      <c r="B13" s="196"/>
+      <c r="C13" s="194"/>
       <c r="D13" s="97" t="s">
         <v>16</v>
       </c>
@@ -5206,13 +5330,13 @@
         <v>201</v>
       </c>
       <c r="F13" s="94"/>
-      <c r="G13" s="189"/>
+      <c r="G13" s="190"/>
       <c r="H13" s="94"/>
     </row>
     <row r="14" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="56"/>
-      <c r="B14" s="195"/>
-      <c r="C14" s="193" t="s">
+      <c r="B14" s="196"/>
+      <c r="C14" s="194" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="97" t="s">
@@ -5222,13 +5346,13 @@
         <v>202</v>
       </c>
       <c r="F14" s="94"/>
-      <c r="G14" s="189"/>
+      <c r="G14" s="190"/>
       <c r="H14" s="94"/>
     </row>
     <row r="15" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="56"/>
-      <c r="B15" s="195"/>
-      <c r="C15" s="193"/>
+      <c r="B15" s="196"/>
+      <c r="C15" s="194"/>
       <c r="D15" s="97" t="s">
         <v>13</v>
       </c>
@@ -5236,13 +5360,13 @@
         <v>203</v>
       </c>
       <c r="F15" s="94"/>
-      <c r="G15" s="189"/>
+      <c r="G15" s="190"/>
       <c r="H15" s="94"/>
     </row>
     <row r="16" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="56"/>
-      <c r="B16" s="195"/>
-      <c r="C16" s="193"/>
+      <c r="B16" s="196"/>
+      <c r="C16" s="194"/>
       <c r="D16" s="97" t="s">
         <v>16</v>
       </c>
@@ -5250,13 +5374,13 @@
         <v>204</v>
       </c>
       <c r="F16" s="94"/>
-      <c r="G16" s="189"/>
+      <c r="G16" s="190"/>
       <c r="H16" s="94"/>
     </row>
     <row r="17" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="56"/>
-      <c r="B17" s="195"/>
-      <c r="C17" s="193" t="s">
+      <c r="B17" s="196"/>
+      <c r="C17" s="194" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="97" t="s">
@@ -5266,13 +5390,13 @@
         <v>205</v>
       </c>
       <c r="F17" s="94"/>
-      <c r="G17" s="189"/>
+      <c r="G17" s="190"/>
       <c r="H17" s="94"/>
     </row>
     <row r="18" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="56"/>
-      <c r="B18" s="195"/>
-      <c r="C18" s="193"/>
+      <c r="B18" s="196"/>
+      <c r="C18" s="194"/>
       <c r="D18" s="97" t="s">
         <v>13</v>
       </c>
@@ -5280,13 +5404,13 @@
         <v>206</v>
       </c>
       <c r="F18" s="94"/>
-      <c r="G18" s="189"/>
+      <c r="G18" s="190"/>
       <c r="H18" s="94"/>
     </row>
     <row r="19" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="56"/>
-      <c r="B19" s="195"/>
-      <c r="C19" s="193"/>
+      <c r="B19" s="196"/>
+      <c r="C19" s="194"/>
       <c r="D19" s="97" t="s">
         <v>16</v>
       </c>
@@ -5294,15 +5418,15 @@
         <v>207</v>
       </c>
       <c r="F19" s="94"/>
-      <c r="G19" s="189"/>
+      <c r="G19" s="190"/>
       <c r="H19" s="94"/>
     </row>
     <row r="20" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="56"/>
-      <c r="B20" s="196" t="s">
+      <c r="B20" s="197" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="194" t="s">
+      <c r="C20" s="195" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="99" t="s">
@@ -5312,13 +5436,13 @@
         <v>24</v>
       </c>
       <c r="F20" s="100"/>
-      <c r="G20" s="189"/>
+      <c r="G20" s="190"/>
       <c r="H20" s="94"/>
     </row>
     <row r="21" spans="1:8" s="52" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="56"/>
-      <c r="B21" s="196"/>
-      <c r="C21" s="194"/>
+      <c r="B21" s="197"/>
+      <c r="C21" s="195"/>
       <c r="D21" s="99" t="s">
         <v>25</v>
       </c>
@@ -5326,13 +5450,13 @@
         <v>26</v>
       </c>
       <c r="F21" s="100"/>
-      <c r="G21" s="189"/>
+      <c r="G21" s="190"/>
       <c r="H21" s="94"/>
     </row>
     <row r="22" spans="1:8" s="52" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="56"/>
-      <c r="B22" s="196"/>
-      <c r="C22" s="194"/>
+      <c r="B22" s="197"/>
+      <c r="C22" s="195"/>
       <c r="D22" s="101" t="s">
         <v>27</v>
       </c>
@@ -5340,13 +5464,13 @@
         <v>192</v>
       </c>
       <c r="F22" s="100"/>
-      <c r="G22" s="189"/>
+      <c r="G22" s="190"/>
       <c r="H22" s="94"/>
     </row>
     <row r="23" spans="1:8" s="52" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="56"/>
-      <c r="B23" s="196"/>
-      <c r="C23" s="194"/>
+      <c r="B23" s="197"/>
+      <c r="C23" s="195"/>
       <c r="D23" s="101" t="s">
         <v>28</v>
       </c>
@@ -5354,12 +5478,12 @@
         <v>193</v>
       </c>
       <c r="F23" s="100"/>
-      <c r="G23" s="189"/>
+      <c r="G23" s="190"/>
       <c r="H23" s="94"/>
     </row>
     <row r="24" spans="1:8" s="52" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A24" s="56"/>
-      <c r="B24" s="196"/>
+      <c r="B24" s="197"/>
       <c r="C24" s="105" t="s">
         <v>8</v>
       </c>
@@ -5372,13 +5496,13 @@
       <c r="F24" s="103" t="s">
         <v>293</v>
       </c>
-      <c r="G24" s="189"/>
+      <c r="G24" s="190"/>
       <c r="H24" s="94"/>
     </row>
     <row r="25" spans="1:8" s="53" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="92"/>
-      <c r="B25" s="196"/>
-      <c r="C25" s="194" t="s">
+      <c r="B25" s="197"/>
+      <c r="C25" s="195" t="s">
         <v>30</v>
       </c>
       <c r="D25" s="99" t="s">
@@ -5388,13 +5512,13 @@
         <v>32</v>
       </c>
       <c r="F25" s="100"/>
-      <c r="G25" s="189"/>
+      <c r="G25" s="190"/>
       <c r="H25" s="100"/>
     </row>
     <row r="26" spans="1:8" s="53" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="92"/>
-      <c r="B26" s="196"/>
-      <c r="C26" s="194"/>
+      <c r="B26" s="197"/>
+      <c r="C26" s="195"/>
       <c r="D26" s="101" t="s">
         <v>27</v>
       </c>
@@ -5402,13 +5526,13 @@
         <v>33</v>
       </c>
       <c r="F26" s="100"/>
-      <c r="G26" s="189"/>
+      <c r="G26" s="190"/>
       <c r="H26" s="100"/>
     </row>
     <row r="27" spans="1:8" s="53" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="92"/>
-      <c r="B27" s="196"/>
-      <c r="C27" s="194"/>
+      <c r="B27" s="197"/>
+      <c r="C27" s="195"/>
       <c r="D27" s="101" t="s">
         <v>34</v>
       </c>
@@ -5416,13 +5540,13 @@
         <v>35</v>
       </c>
       <c r="F27" s="100"/>
-      <c r="G27" s="189"/>
+      <c r="G27" s="190"/>
       <c r="H27" s="100"/>
     </row>
     <row r="28" spans="1:8" s="53" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="92"/>
-      <c r="B28" s="196"/>
-      <c r="C28" s="194"/>
+      <c r="B28" s="197"/>
+      <c r="C28" s="195"/>
       <c r="D28" s="101" t="s">
         <v>36</v>
       </c>
@@ -5430,12 +5554,12 @@
         <v>306</v>
       </c>
       <c r="F28" s="100"/>
-      <c r="G28" s="189"/>
+      <c r="G28" s="190"/>
       <c r="H28" s="100"/>
     </row>
     <row r="29" spans="1:8" s="54" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="93"/>
-      <c r="B29" s="196"/>
+      <c r="B29" s="197"/>
       <c r="C29" s="105" t="s">
         <v>21</v>
       </c>
@@ -5446,11 +5570,11 @@
       <c r="F29" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="G29" s="189"/>
+      <c r="G29" s="190"/>
       <c r="H29" s="94"/>
     </row>
     <row r="30" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="B30" s="190" t="s">
+      <c r="B30" s="191" t="s">
         <v>261</v>
       </c>
       <c r="C30" s="107" t="s">
@@ -5465,11 +5589,11 @@
       <c r="F30" s="109" t="s">
         <v>291</v>
       </c>
-      <c r="G30" s="189"/>
+      <c r="G30" s="190"/>
       <c r="H30" s="37"/>
     </row>
     <row r="31" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="B31" s="191"/>
+      <c r="B31" s="192"/>
       <c r="C31" s="95" t="s">
         <v>226</v>
       </c>
@@ -5482,11 +5606,11 @@
       <c r="F31" s="96" t="s">
         <v>267</v>
       </c>
-      <c r="G31" s="189"/>
+      <c r="G31" s="190"/>
       <c r="H31" s="37"/>
     </row>
     <row r="32" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="B32" s="191"/>
+      <c r="B32" s="192"/>
       <c r="C32" s="95" t="s">
         <v>227</v>
       </c>
@@ -5499,11 +5623,11 @@
       <c r="F32" s="96" t="s">
         <v>266</v>
       </c>
-      <c r="G32" s="189"/>
+      <c r="G32" s="190"/>
       <c r="H32" s="37"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B33" s="192"/>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B33" s="193"/>
       <c r="C33" s="95" t="s">
         <v>228</v>
       </c>
@@ -5514,11 +5638,124 @@
         <v>265</v>
       </c>
       <c r="F33" s="96"/>
-      <c r="G33" s="189"/>
+      <c r="G33" s="190"/>
       <c r="H33" s="37"/>
     </row>
+    <row r="34" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="36"/>
+      <c r="B34" s="280" t="s">
+        <v>402</v>
+      </c>
+      <c r="C34" s="281" t="s">
+        <v>403</v>
+      </c>
+      <c r="D34" s="281" t="s">
+        <v>416</v>
+      </c>
+      <c r="E34" s="281" t="s">
+        <v>413</v>
+      </c>
+      <c r="F34" s="281" t="s">
+        <v>415</v>
+      </c>
+      <c r="G34" s="281" t="s">
+        <v>414</v>
+      </c>
+      <c r="H34" s="282"/>
+    </row>
+    <row r="35" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="36"/>
+      <c r="B35" s="280"/>
+      <c r="C35" s="280" t="s">
+        <v>404</v>
+      </c>
+      <c r="D35" s="280" t="s">
+        <v>405</v>
+      </c>
+      <c r="E35" s="280" t="s">
+        <v>406</v>
+      </c>
+      <c r="F35" s="281" t="s">
+        <v>407</v>
+      </c>
+      <c r="G35" s="281" t="s">
+        <v>412</v>
+      </c>
+      <c r="H35" s="282"/>
+    </row>
+    <row r="36" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="36"/>
+      <c r="B36" s="280"/>
+      <c r="C36" s="280"/>
+      <c r="D36" s="280"/>
+      <c r="E36" s="280"/>
+      <c r="F36" s="281" t="s">
+        <v>410</v>
+      </c>
+      <c r="G36" s="281" t="s">
+        <v>411</v>
+      </c>
+      <c r="H36" s="282"/>
+    </row>
+    <row r="37" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+      <c r="A37" s="36"/>
+      <c r="B37" s="280"/>
+      <c r="C37" s="280"/>
+      <c r="D37" s="280"/>
+      <c r="E37" s="280"/>
+      <c r="F37" s="281" t="s">
+        <v>408</v>
+      </c>
+      <c r="G37" s="281" t="s">
+        <v>412</v>
+      </c>
+      <c r="H37" s="282"/>
+    </row>
+    <row r="38" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="36"/>
+      <c r="B38" s="280"/>
+      <c r="C38" s="280"/>
+      <c r="D38" s="280"/>
+      <c r="E38" s="280"/>
+      <c r="F38" s="281" t="s">
+        <v>409</v>
+      </c>
+      <c r="G38" s="281" t="s">
+        <v>412</v>
+      </c>
+      <c r="H38" s="282"/>
+    </row>
+    <row r="39" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+    </row>
+    <row r="41" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+    </row>
+    <row r="42" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+    </row>
+    <row r="43" spans="1:9" ht="152.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+    </row>
+    <row r="45" spans="1:9" ht="108" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I46" s="187"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="15">
     <mergeCell ref="G2:G33"/>
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="C17:C19"/>
@@ -5530,6 +5767,10 @@
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="B34:B38"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5542,7 +5783,7 @@
   <dimension ref="A1:N54"/>
   <sheetViews>
     <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40:L41"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5571,11 +5812,11 @@
       <c r="E1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="214" t="s">
+      <c r="F1" s="200" t="s">
         <v>283</v>
       </c>
-      <c r="G1" s="215"/>
-      <c r="H1" s="215"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
       <c r="I1" s="51"/>
       <c r="J1" s="51" t="s">
         <v>5</v>
@@ -5593,7 +5834,7 @@
       <c r="A2" s="58">
         <v>1</v>
       </c>
-      <c r="B2" s="225" t="s">
+      <c r="B2" s="213" t="s">
         <v>232</v>
       </c>
       <c r="C2" s="112" t="s">
@@ -5603,14 +5844,14 @@
       <c r="E2" s="113" t="s">
         <v>238</v>
       </c>
-      <c r="F2" s="228" t="s">
+      <c r="F2" s="216" t="s">
         <v>244</v>
       </c>
-      <c r="G2" s="229"/>
-      <c r="H2" s="230"/>
+      <c r="G2" s="217"/>
+      <c r="H2" s="218"/>
       <c r="I2" s="39"/>
       <c r="J2" s="42"/>
-      <c r="K2" s="219" t="s">
+      <c r="K2" s="207" t="s">
         <v>217</v>
       </c>
       <c r="L2" s="83"/>
@@ -5621,7 +5862,7 @@
       <c r="A3" s="58">
         <v>2</v>
       </c>
-      <c r="B3" s="226"/>
+      <c r="B3" s="214"/>
       <c r="C3" s="112" t="s">
         <v>234</v>
       </c>
@@ -5629,14 +5870,14 @@
       <c r="E3" s="113" t="s">
         <v>239</v>
       </c>
-      <c r="F3" s="228" t="s">
+      <c r="F3" s="216" t="s">
         <v>245</v>
       </c>
-      <c r="G3" s="229"/>
-      <c r="H3" s="230"/>
+      <c r="G3" s="217"/>
+      <c r="H3" s="218"/>
       <c r="I3" s="42"/>
       <c r="J3" s="42"/>
-      <c r="K3" s="220"/>
+      <c r="K3" s="208"/>
       <c r="L3" s="83"/>
       <c r="M3" s="80"/>
       <c r="N3" s="81"/>
@@ -5645,7 +5886,7 @@
       <c r="A4" s="58">
         <v>3</v>
       </c>
-      <c r="B4" s="226"/>
+      <c r="B4" s="214"/>
       <c r="C4" s="112" t="s">
         <v>235</v>
       </c>
@@ -5653,14 +5894,14 @@
       <c r="E4" s="113" t="s">
         <v>240</v>
       </c>
-      <c r="F4" s="228" t="s">
+      <c r="F4" s="216" t="s">
         <v>243</v>
       </c>
-      <c r="G4" s="229"/>
-      <c r="H4" s="230"/>
+      <c r="G4" s="217"/>
+      <c r="H4" s="218"/>
       <c r="I4" s="42"/>
       <c r="J4" s="42"/>
-      <c r="K4" s="220"/>
+      <c r="K4" s="208"/>
       <c r="L4" s="83"/>
       <c r="M4" s="80"/>
       <c r="N4" s="81"/>
@@ -5669,7 +5910,7 @@
       <c r="A5" s="58">
         <v>4</v>
       </c>
-      <c r="B5" s="226"/>
+      <c r="B5" s="214"/>
       <c r="C5" s="112" t="s">
         <v>236</v>
       </c>
@@ -5677,14 +5918,14 @@
       <c r="E5" s="113" t="s">
         <v>241</v>
       </c>
-      <c r="F5" s="228" t="s">
+      <c r="F5" s="216" t="s">
         <v>246</v>
       </c>
-      <c r="G5" s="229"/>
-      <c r="H5" s="230"/>
+      <c r="G5" s="217"/>
+      <c r="H5" s="218"/>
       <c r="I5" s="42"/>
       <c r="J5" s="42"/>
-      <c r="K5" s="220"/>
+      <c r="K5" s="208"/>
       <c r="L5" s="42"/>
       <c r="M5" s="81"/>
       <c r="N5" s="81"/>
@@ -5693,7 +5934,7 @@
       <c r="A6" s="58">
         <v>5</v>
       </c>
-      <c r="B6" s="226"/>
+      <c r="B6" s="214"/>
       <c r="C6" s="112" t="s">
         <v>237</v>
       </c>
@@ -5701,14 +5942,14 @@
       <c r="E6" s="113" t="s">
         <v>242</v>
       </c>
-      <c r="F6" s="228" t="s">
+      <c r="F6" s="216" t="s">
         <v>247</v>
       </c>
-      <c r="G6" s="229"/>
-      <c r="H6" s="230"/>
+      <c r="G6" s="217"/>
+      <c r="H6" s="218"/>
       <c r="I6" s="42"/>
       <c r="J6" s="42"/>
-      <c r="K6" s="220"/>
+      <c r="K6" s="208"/>
       <c r="L6" s="42"/>
       <c r="M6" s="81"/>
       <c r="N6" s="81"/>
@@ -5717,7 +5958,7 @@
       <c r="A7" s="58">
         <v>6</v>
       </c>
-      <c r="B7" s="226"/>
+      <c r="B7" s="214"/>
       <c r="C7" s="137" t="s">
         <v>284</v>
       </c>
@@ -5725,9 +5966,9 @@
       <c r="E7" s="41" t="s">
         <v>285</v>
       </c>
-      <c r="F7" s="231"/>
-      <c r="G7" s="232"/>
-      <c r="H7" s="233"/>
+      <c r="F7" s="219"/>
+      <c r="G7" s="220"/>
+      <c r="H7" s="221"/>
       <c r="I7" s="138"/>
       <c r="J7" s="138"/>
       <c r="K7" s="131" t="s">
@@ -5741,7 +5982,7 @@
     </row>
     <row r="8" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="58"/>
-      <c r="B8" s="227"/>
+      <c r="B8" s="215"/>
       <c r="C8" s="151" t="s">
         <v>334</v>
       </c>
@@ -5749,11 +5990,11 @@
       <c r="E8" s="41" t="s">
         <v>335</v>
       </c>
-      <c r="F8" s="234" t="s">
+      <c r="F8" s="222" t="s">
         <v>334</v>
       </c>
-      <c r="G8" s="232"/>
-      <c r="H8" s="233"/>
+      <c r="G8" s="220"/>
+      <c r="H8" s="221"/>
       <c r="I8" s="138"/>
       <c r="J8" s="138"/>
       <c r="K8" s="150" t="s">
@@ -5767,7 +6008,7 @@
       <c r="A9" s="58">
         <v>7</v>
       </c>
-      <c r="B9" s="216" t="s">
+      <c r="B9" s="202" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="44" t="s">
@@ -5786,7 +6027,7 @@
       <c r="H9" s="42"/>
       <c r="I9" s="42"/>
       <c r="J9" s="58"/>
-      <c r="K9" s="220" t="s">
+      <c r="K9" s="208" t="s">
         <v>286</v>
       </c>
       <c r="L9" s="58"/>
@@ -5797,7 +6038,7 @@
       <c r="A10" s="58">
         <v>8</v>
       </c>
-      <c r="B10" s="216"/>
+      <c r="B10" s="202"/>
       <c r="C10" s="44" t="s">
         <v>43</v>
       </c>
@@ -5814,14 +6055,14 @@
       <c r="H10" s="42"/>
       <c r="I10" s="42"/>
       <c r="J10" s="58"/>
-      <c r="K10" s="220"/>
+      <c r="K10" s="208"/>
       <c r="L10" s="58"/>
     </row>
     <row r="11" spans="1:14" ht="84.75" x14ac:dyDescent="0.15">
       <c r="A11" s="58">
         <v>9</v>
       </c>
-      <c r="B11" s="216"/>
+      <c r="B11" s="202"/>
       <c r="C11" s="44" t="s">
         <v>47</v>
       </c>
@@ -5840,14 +6081,14 @@
       </c>
       <c r="I11" s="42"/>
       <c r="J11" s="58"/>
-      <c r="K11" s="220"/>
+      <c r="K11" s="208"/>
       <c r="L11" s="58"/>
     </row>
     <row r="12" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="58">
         <v>10</v>
       </c>
-      <c r="B12" s="216"/>
+      <c r="B12" s="202"/>
       <c r="C12" s="44" t="s">
         <v>48</v>
       </c>
@@ -5864,14 +6105,14 @@
       <c r="H12" s="42"/>
       <c r="I12" s="42"/>
       <c r="J12" s="58"/>
-      <c r="K12" s="220"/>
+      <c r="K12" s="208"/>
       <c r="L12" s="58"/>
     </row>
     <row r="13" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="58">
         <v>11</v>
       </c>
-      <c r="B13" s="216"/>
+      <c r="B13" s="202"/>
       <c r="C13" s="44" t="s">
         <v>51</v>
       </c>
@@ -5888,14 +6129,14 @@
       <c r="H13" s="42"/>
       <c r="I13" s="42"/>
       <c r="J13" s="58"/>
-      <c r="K13" s="220"/>
+      <c r="K13" s="208"/>
       <c r="L13" s="58"/>
     </row>
     <row r="14" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A14" s="58">
         <v>12</v>
       </c>
-      <c r="B14" s="222" t="s">
+      <c r="B14" s="210" t="s">
         <v>55</v>
       </c>
       <c r="C14" s="46" t="s">
@@ -5918,14 +6159,14 @@
       <c r="J14" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="K14" s="220"/>
+      <c r="K14" s="208"/>
       <c r="L14" s="57"/>
     </row>
     <row r="15" spans="1:14" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A15" s="58">
         <v>13</v>
       </c>
-      <c r="B15" s="223"/>
+      <c r="B15" s="211"/>
       <c r="C15" s="46" t="s">
         <v>60</v>
       </c>
@@ -5946,14 +6187,14 @@
       <c r="J15" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="K15" s="221"/>
+      <c r="K15" s="209"/>
       <c r="L15" s="57"/>
     </row>
     <row r="16" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A16" s="58">
         <v>10</v>
       </c>
-      <c r="B16" s="223"/>
+      <c r="B16" s="211"/>
       <c r="C16" s="141" t="s">
         <v>308</v>
       </c>
@@ -5975,7 +6216,7 @@
     </row>
     <row r="17" spans="1:12" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A17" s="58"/>
-      <c r="B17" s="224"/>
+      <c r="B17" s="212"/>
       <c r="C17" s="134" t="s">
         <v>298</v>
       </c>
@@ -5997,7 +6238,7 @@
       <c r="A18" s="58">
         <v>14</v>
       </c>
-      <c r="B18" s="217" t="s">
+      <c r="B18" s="205" t="s">
         <v>138</v>
       </c>
       <c r="C18" s="59" t="s">
@@ -6012,7 +6253,7 @@
       <c r="H18" s="58"/>
       <c r="I18" s="58"/>
       <c r="J18" s="57"/>
-      <c r="K18" s="206" t="s">
+      <c r="K18" s="203" t="s">
         <v>286</v>
       </c>
       <c r="L18" s="58"/>
@@ -6021,7 +6262,7 @@
       <c r="A19" s="58">
         <v>15</v>
       </c>
-      <c r="B19" s="218"/>
+      <c r="B19" s="206"/>
       <c r="C19" s="59" t="s">
         <v>141</v>
       </c>
@@ -6034,14 +6275,14 @@
       <c r="H19" s="58"/>
       <c r="I19" s="58"/>
       <c r="J19" s="58"/>
-      <c r="K19" s="205"/>
+      <c r="K19" s="204"/>
       <c r="L19" s="58"/>
     </row>
     <row r="20" spans="1:12" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A20" s="58">
         <v>16</v>
       </c>
-      <c r="B20" s="218"/>
+      <c r="B20" s="206"/>
       <c r="C20" s="59" t="s">
         <v>143</v>
       </c>
@@ -6056,14 +6297,14 @@
       <c r="H20" s="58"/>
       <c r="I20" s="58"/>
       <c r="J20" s="58"/>
-      <c r="K20" s="205"/>
+      <c r="K20" s="204"/>
       <c r="L20" s="58"/>
     </row>
     <row r="21" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="58">
         <v>17</v>
       </c>
-      <c r="B21" s="218"/>
+      <c r="B21" s="206"/>
       <c r="C21" s="60" t="s">
         <v>146</v>
       </c>
@@ -6085,7 +6326,7 @@
       <c r="A22" s="58">
         <v>18</v>
       </c>
-      <c r="B22" s="218"/>
+      <c r="B22" s="206"/>
       <c r="C22" s="69" t="s">
         <v>149</v>
       </c>
@@ -6107,7 +6348,7 @@
       <c r="A23" s="58">
         <v>19</v>
       </c>
-      <c r="B23" s="206" t="s">
+      <c r="B23" s="203" t="s">
         <v>151</v>
       </c>
       <c r="C23" s="74" t="s">
@@ -6122,7 +6363,7 @@
       <c r="H23" s="58"/>
       <c r="I23" s="58"/>
       <c r="J23" s="58"/>
-      <c r="K23" s="206" t="s">
+      <c r="K23" s="203" t="s">
         <v>39</v>
       </c>
       <c r="L23" s="58"/>
@@ -6131,7 +6372,7 @@
       <c r="A24" s="58">
         <v>20</v>
       </c>
-      <c r="B24" s="205"/>
+      <c r="B24" s="204"/>
       <c r="C24" s="74" t="s">
         <v>141</v>
       </c>
@@ -6144,14 +6385,14 @@
       <c r="H24" s="58"/>
       <c r="I24" s="58"/>
       <c r="J24" s="58"/>
-      <c r="K24" s="205"/>
+      <c r="K24" s="204"/>
       <c r="L24" s="58"/>
     </row>
     <row r="25" spans="1:12" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A25" s="58">
         <v>21</v>
       </c>
-      <c r="B25" s="205"/>
+      <c r="B25" s="204"/>
       <c r="C25" s="70" t="s">
         <v>143</v>
       </c>
@@ -6166,14 +6407,14 @@
       <c r="H25" s="58"/>
       <c r="I25" s="58"/>
       <c r="J25" s="58"/>
-      <c r="K25" s="205"/>
+      <c r="K25" s="204"/>
       <c r="L25" s="58"/>
     </row>
     <row r="26" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="58">
         <v>22</v>
       </c>
-      <c r="B26" s="205"/>
+      <c r="B26" s="204"/>
       <c r="C26" s="74" t="s">
         <v>146</v>
       </c>
@@ -6195,7 +6436,7 @@
       <c r="A27" s="58">
         <v>23</v>
       </c>
-      <c r="B27" s="205"/>
+      <c r="B27" s="204"/>
       <c r="C27" s="75" t="s">
         <v>149</v>
       </c>
@@ -6217,7 +6458,7 @@
       <c r="A28" s="58">
         <v>24</v>
       </c>
-      <c r="B28" s="206" t="s">
+      <c r="B28" s="203" t="s">
         <v>219</v>
       </c>
       <c r="C28" s="59" t="s">
@@ -6232,7 +6473,7 @@
       <c r="H28" s="58"/>
       <c r="I28" s="58"/>
       <c r="J28" s="58"/>
-      <c r="K28" s="205" t="s">
+      <c r="K28" s="204" t="s">
         <v>39</v>
       </c>
       <c r="L28" s="58"/>
@@ -6241,7 +6482,7 @@
       <c r="A29" s="58">
         <v>25</v>
       </c>
-      <c r="B29" s="206"/>
+      <c r="B29" s="203"/>
       <c r="C29" s="59" t="s">
         <v>141</v>
       </c>
@@ -6254,14 +6495,14 @@
       <c r="H29" s="58"/>
       <c r="I29" s="58"/>
       <c r="J29" s="58"/>
-      <c r="K29" s="205"/>
+      <c r="K29" s="204"/>
       <c r="L29" s="58"/>
     </row>
     <row r="30" spans="1:12" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A30" s="58">
         <v>26</v>
       </c>
-      <c r="B30" s="206"/>
+      <c r="B30" s="203"/>
       <c r="C30" s="59" t="s">
         <v>143</v>
       </c>
@@ -6276,14 +6517,14 @@
       <c r="H30" s="58"/>
       <c r="I30" s="58"/>
       <c r="J30" s="58"/>
-      <c r="K30" s="205"/>
+      <c r="K30" s="204"/>
       <c r="L30" s="58"/>
     </row>
     <row r="31" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="58">
         <v>27</v>
       </c>
-      <c r="B31" s="206"/>
+      <c r="B31" s="203"/>
       <c r="C31" s="60" t="s">
         <v>146</v>
       </c>
@@ -6305,7 +6546,7 @@
       <c r="A32" s="58">
         <v>28</v>
       </c>
-      <c r="B32" s="206"/>
+      <c r="B32" s="203"/>
       <c r="C32" s="69" t="s">
         <v>149</v>
       </c>
@@ -6327,7 +6568,7 @@
       <c r="A33" s="58">
         <v>29</v>
       </c>
-      <c r="B33" s="206"/>
+      <c r="B33" s="203"/>
       <c r="C33" s="69" t="s">
         <v>218</v>
       </c>
@@ -6351,7 +6592,7 @@
       <c r="A34" s="58">
         <v>30</v>
       </c>
-      <c r="B34" s="208" t="s">
+      <c r="B34" s="225" t="s">
         <v>216</v>
       </c>
       <c r="C34" s="70" t="s">
@@ -6366,7 +6607,7 @@
       <c r="H34" s="58"/>
       <c r="I34" s="58"/>
       <c r="J34" s="58"/>
-      <c r="K34" s="206" t="s">
+      <c r="K34" s="203" t="s">
         <v>217</v>
       </c>
       <c r="L34" s="58"/>
@@ -6375,7 +6616,7 @@
       <c r="A35" s="58">
         <v>31</v>
       </c>
-      <c r="B35" s="208"/>
+      <c r="B35" s="225"/>
       <c r="C35" s="70" t="s">
         <v>141</v>
       </c>
@@ -6388,14 +6629,14 @@
       <c r="H35" s="58"/>
       <c r="I35" s="58"/>
       <c r="J35" s="58"/>
-      <c r="K35" s="205"/>
+      <c r="K35" s="204"/>
       <c r="L35" s="58"/>
     </row>
     <row r="36" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="58">
         <v>32</v>
       </c>
-      <c r="B36" s="208"/>
+      <c r="B36" s="225"/>
       <c r="C36" s="70" t="s">
         <v>143</v>
       </c>
@@ -6410,14 +6651,14 @@
       <c r="H36" s="58"/>
       <c r="I36" s="58"/>
       <c r="J36" s="58"/>
-      <c r="K36" s="205"/>
+      <c r="K36" s="204"/>
       <c r="L36" s="58"/>
     </row>
     <row r="37" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="58">
         <v>33</v>
       </c>
-      <c r="B37" s="208"/>
+      <c r="B37" s="225"/>
       <c r="C37" s="74" t="s">
         <v>146</v>
       </c>
@@ -6439,7 +6680,7 @@
       <c r="A38" s="58">
         <v>34</v>
       </c>
-      <c r="B38" s="208"/>
+      <c r="B38" s="225"/>
       <c r="C38" s="75" t="s">
         <v>149</v>
       </c>
@@ -6461,7 +6702,7 @@
       <c r="A39" s="58">
         <v>35</v>
       </c>
-      <c r="B39" s="208"/>
+      <c r="B39" s="225"/>
       <c r="C39" s="75" t="s">
         <v>292</v>
       </c>
@@ -6481,7 +6722,7 @@
       <c r="A40" s="159">
         <v>36</v>
       </c>
-      <c r="B40" s="207" t="s">
+      <c r="B40" s="224" t="s">
         <v>166</v>
       </c>
       <c r="C40" s="160" t="s">
@@ -6496,10 +6737,10 @@
       <c r="H40" s="162"/>
       <c r="I40" s="162"/>
       <c r="J40" s="162"/>
-      <c r="K40" s="212" t="s">
+      <c r="K40" s="229" t="s">
         <v>39</v>
       </c>
-      <c r="L40" s="199" t="s">
+      <c r="L40" s="231" t="s">
         <v>401</v>
       </c>
     </row>
@@ -6507,7 +6748,7 @@
       <c r="A41" s="159">
         <v>37</v>
       </c>
-      <c r="B41" s="207"/>
+      <c r="B41" s="224"/>
       <c r="C41" s="160" t="s">
         <v>169</v>
       </c>
@@ -6520,12 +6761,12 @@
       <c r="H41" s="162"/>
       <c r="I41" s="162"/>
       <c r="J41" s="162"/>
-      <c r="K41" s="213"/>
-      <c r="L41" s="200"/>
+      <c r="K41" s="230"/>
+      <c r="L41" s="232"/>
     </row>
     <row r="42" spans="1:12" s="27" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="153"/>
-      <c r="B42" s="209" t="s">
+      <c r="B42" s="226" t="s">
         <v>340</v>
       </c>
       <c r="C42" s="164" t="s">
@@ -6549,7 +6790,7 @@
     </row>
     <row r="43" spans="1:12" s="27" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="153"/>
-      <c r="B43" s="210"/>
+      <c r="B43" s="227"/>
       <c r="C43" s="164" t="s">
         <v>343</v>
       </c>
@@ -6569,7 +6810,7 @@
     </row>
     <row r="44" spans="1:12" s="27" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="153"/>
-      <c r="B44" s="211"/>
+      <c r="B44" s="228"/>
       <c r="C44" s="164" t="s">
         <v>345</v>
       </c>
@@ -6591,7 +6832,7 @@
       <c r="A45" s="58">
         <v>38</v>
       </c>
-      <c r="B45" s="201" t="s">
+      <c r="B45" s="223" t="s">
         <v>171</v>
       </c>
       <c r="C45" s="88" t="s">
@@ -6613,7 +6854,7 @@
       <c r="A46" s="58">
         <v>39</v>
       </c>
-      <c r="B46" s="201"/>
+      <c r="B46" s="223"/>
       <c r="C46" s="88" t="s">
         <v>169</v>
       </c>
@@ -6633,7 +6874,7 @@
       <c r="A47" s="58">
         <v>40</v>
       </c>
-      <c r="B47" s="201"/>
+      <c r="B47" s="223"/>
       <c r="C47" s="86" t="s">
         <v>179</v>
       </c>
@@ -6657,7 +6898,7 @@
       <c r="A48" s="58">
         <v>41</v>
       </c>
-      <c r="B48" s="202" t="s">
+      <c r="B48" s="233" t="s">
         <v>275</v>
       </c>
       <c r="C48" s="117"/>
@@ -6668,7 +6909,7 @@
       <c r="H48" s="119"/>
       <c r="I48" s="119"/>
       <c r="J48" s="119"/>
-      <c r="K48" s="201" t="s">
+      <c r="K48" s="223" t="s">
         <v>282</v>
       </c>
       <c r="L48" s="37"/>
@@ -6677,7 +6918,7 @@
       <c r="A49" s="58">
         <v>42</v>
       </c>
-      <c r="B49" s="203"/>
+      <c r="B49" s="234"/>
       <c r="C49" s="117" t="s">
         <v>272</v>
       </c>
@@ -6692,14 +6933,14 @@
       <c r="H49" s="119"/>
       <c r="I49" s="119"/>
       <c r="J49" s="119"/>
-      <c r="K49" s="201"/>
+      <c r="K49" s="223"/>
       <c r="L49" s="37"/>
     </row>
     <row r="50" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A50" s="58">
         <v>43</v>
       </c>
-      <c r="B50" s="203"/>
+      <c r="B50" s="234"/>
       <c r="C50" s="117" t="s">
         <v>273</v>
       </c>
@@ -6714,14 +6955,14 @@
       <c r="H50" s="119"/>
       <c r="I50" s="119"/>
       <c r="J50" s="119"/>
-      <c r="K50" s="201"/>
+      <c r="K50" s="223"/>
       <c r="L50" s="37"/>
     </row>
     <row r="51" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A51" s="58">
         <v>44</v>
       </c>
-      <c r="B51" s="204"/>
+      <c r="B51" s="235"/>
       <c r="C51" s="117" t="s">
         <v>274</v>
       </c>
@@ -6736,7 +6977,7 @@
       <c r="H51" s="119"/>
       <c r="I51" s="119"/>
       <c r="J51" s="119"/>
-      <c r="K51" s="201"/>
+      <c r="K51" s="223"/>
       <c r="L51" s="37"/>
     </row>
     <row r="52" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -6798,6 +7039,19 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="K48:K51"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="K28:K30"/>
+    <mergeCell ref="K34:K36"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="K40:K41"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="K18:K20"/>
@@ -6813,19 +7067,6 @@
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="F8:H8"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="K48:K51"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="K28:K30"/>
-    <mergeCell ref="K34:K36"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6837,7 +7078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F10" sqref="F10:F21"/>
     </sheetView>
   </sheetViews>
@@ -6883,7 +7124,7 @@
       <c r="A2" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="245" t="s">
+      <c r="B2" s="239" t="s">
         <v>248</v>
       </c>
       <c r="C2" s="57" t="s">
@@ -6892,10 +7133,10 @@
       <c r="D2" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="E2" s="237" t="s">
+      <c r="E2" s="242" t="s">
         <v>188</v>
       </c>
-      <c r="F2" s="242" t="s">
+      <c r="F2" s="236" t="s">
         <v>137</v>
       </c>
       <c r="G2" s="31" t="s">
@@ -6905,15 +7146,15 @@
     </row>
     <row r="3" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="122"/>
-      <c r="B3" s="246"/>
+      <c r="B3" s="240"/>
       <c r="C3" s="57" t="s">
         <v>70</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="E3" s="237"/>
-      <c r="F3" s="243"/>
+      <c r="E3" s="242"/>
+      <c r="F3" s="237"/>
       <c r="G3" s="57" t="s">
         <v>255</v>
       </c>
@@ -6923,15 +7164,15 @@
     </row>
     <row r="4" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="122"/>
-      <c r="B4" s="246"/>
+      <c r="B4" s="240"/>
       <c r="C4" s="57" t="s">
         <v>72</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="E4" s="237"/>
-      <c r="F4" s="243"/>
+      <c r="E4" s="242"/>
+      <c r="F4" s="237"/>
       <c r="G4" s="129" t="s">
         <v>290</v>
       </c>
@@ -6941,15 +7182,15 @@
     </row>
     <row r="5" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A5" s="122"/>
-      <c r="B5" s="246"/>
+      <c r="B5" s="240"/>
       <c r="C5" s="57" t="s">
         <v>74</v>
       </c>
       <c r="D5" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="E5" s="237"/>
-      <c r="F5" s="243"/>
+      <c r="E5" s="242"/>
+      <c r="F5" s="237"/>
       <c r="G5" s="129" t="s">
         <v>289</v>
       </c>
@@ -6959,15 +7200,15 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="122"/>
-      <c r="B6" s="246"/>
+      <c r="B6" s="240"/>
       <c r="C6" s="57" t="s">
         <v>76</v>
       </c>
       <c r="D6" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="E6" s="237"/>
-      <c r="F6" s="243"/>
+      <c r="E6" s="242"/>
+      <c r="F6" s="237"/>
       <c r="G6" s="57" t="s">
         <v>255</v>
       </c>
@@ -6977,15 +7218,15 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="122"/>
-      <c r="B7" s="246"/>
+      <c r="B7" s="240"/>
       <c r="C7" s="57" t="s">
         <v>78</v>
       </c>
       <c r="D7" s="136" t="s">
         <v>254</v>
       </c>
-      <c r="E7" s="237"/>
-      <c r="F7" s="243"/>
+      <c r="E7" s="242"/>
+      <c r="F7" s="237"/>
       <c r="G7" s="32"/>
       <c r="H7" s="57" t="s">
         <v>79</v>
@@ -6993,15 +7234,15 @@
     </row>
     <row r="8" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A8" s="122"/>
-      <c r="B8" s="247"/>
+      <c r="B8" s="241"/>
       <c r="C8" s="68" t="s">
         <v>300</v>
       </c>
       <c r="D8" s="136" t="s">
         <v>301</v>
       </c>
-      <c r="E8" s="237"/>
-      <c r="F8" s="244"/>
+      <c r="E8" s="242"/>
+      <c r="F8" s="238"/>
       <c r="G8" s="128" t="s">
         <v>303</v>
       </c>
@@ -7016,7 +7257,7 @@
       <c r="D9" s="156" t="s">
         <v>338</v>
       </c>
-      <c r="E9" s="237"/>
+      <c r="E9" s="242"/>
       <c r="F9" s="157" t="s">
         <v>339</v>
       </c>
@@ -7025,7 +7266,7 @@
     </row>
     <row r="10" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" s="122"/>
-      <c r="B10" s="248" t="s">
+      <c r="B10" s="243" t="s">
         <v>80</v>
       </c>
       <c r="C10" s="57" t="s">
@@ -7034,8 +7275,8 @@
       <c r="D10" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="237"/>
-      <c r="F10" s="240" t="s">
+      <c r="E10" s="242"/>
+      <c r="F10" s="250" t="s">
         <v>136</v>
       </c>
       <c r="G10" s="32" t="s">
@@ -7045,15 +7286,15 @@
     </row>
     <row r="11" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A11" s="122"/>
-      <c r="B11" s="248"/>
+      <c r="B11" s="243"/>
       <c r="C11" s="57" t="s">
         <v>84</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="E11" s="237"/>
-      <c r="F11" s="241"/>
+      <c r="E11" s="242"/>
+      <c r="F11" s="251"/>
       <c r="G11" s="31" t="s">
         <v>86</v>
       </c>
@@ -7061,15 +7302,15 @@
     </row>
     <row r="12" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A12" s="122"/>
-      <c r="B12" s="248"/>
+      <c r="B12" s="243"/>
       <c r="C12" s="57" t="s">
         <v>87</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="237"/>
-      <c r="F12" s="241"/>
+      <c r="E12" s="242"/>
+      <c r="F12" s="251"/>
       <c r="G12" s="31" t="s">
         <v>135</v>
       </c>
@@ -7077,15 +7318,15 @@
     </row>
     <row r="13" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A13" s="122"/>
-      <c r="B13" s="248"/>
+      <c r="B13" s="243"/>
       <c r="C13" s="57" t="s">
         <v>89</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="E13" s="237"/>
-      <c r="F13" s="241"/>
+      <c r="E13" s="242"/>
+      <c r="F13" s="251"/>
       <c r="G13" s="31" t="s">
         <v>91</v>
       </c>
@@ -7095,15 +7336,15 @@
     </row>
     <row r="14" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A14" s="122"/>
-      <c r="B14" s="248"/>
+      <c r="B14" s="243"/>
       <c r="C14" s="57" t="s">
         <v>93</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="237"/>
-      <c r="F14" s="241"/>
+      <c r="E14" s="242"/>
+      <c r="F14" s="251"/>
       <c r="G14" s="31" t="s">
         <v>95</v>
       </c>
@@ -7111,15 +7352,15 @@
     </row>
     <row r="15" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A15" s="122"/>
-      <c r="B15" s="248"/>
+      <c r="B15" s="243"/>
       <c r="C15" s="57" t="s">
         <v>96</v>
       </c>
       <c r="D15" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="E15" s="237"/>
-      <c r="F15" s="241"/>
+      <c r="E15" s="242"/>
+      <c r="F15" s="251"/>
       <c r="G15" s="31" t="s">
         <v>95</v>
       </c>
@@ -7127,15 +7368,15 @@
     </row>
     <row r="16" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A16" s="122"/>
-      <c r="B16" s="248"/>
+      <c r="B16" s="243"/>
       <c r="C16" s="57" t="s">
         <v>98</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="237"/>
-      <c r="F16" s="241"/>
+      <c r="E16" s="242"/>
+      <c r="F16" s="251"/>
       <c r="G16" s="31" t="s">
         <v>100</v>
       </c>
@@ -7145,29 +7386,29 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="122"/>
-      <c r="B17" s="248"/>
+      <c r="B17" s="243"/>
       <c r="C17" s="57" t="s">
         <v>102</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="237"/>
-      <c r="F17" s="241"/>
+      <c r="E17" s="242"/>
+      <c r="F17" s="251"/>
       <c r="G17" s="31"/>
       <c r="H17" s="31"/>
     </row>
     <row r="18" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="122"/>
-      <c r="B18" s="248"/>
+      <c r="B18" s="243"/>
       <c r="C18" s="31" t="s">
         <v>104</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="E18" s="237"/>
-      <c r="F18" s="241"/>
+      <c r="E18" s="242"/>
+      <c r="F18" s="251"/>
       <c r="G18" s="31" t="s">
         <v>106</v>
       </c>
@@ -7175,15 +7416,15 @@
     </row>
     <row r="19" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="122"/>
-      <c r="B19" s="248"/>
+      <c r="B19" s="243"/>
       <c r="C19" s="34" t="s">
         <v>107</v>
       </c>
       <c r="D19" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="E19" s="237"/>
-      <c r="F19" s="241"/>
+      <c r="E19" s="242"/>
+      <c r="F19" s="251"/>
       <c r="G19" s="31" t="s">
         <v>109</v>
       </c>
@@ -7191,11 +7432,11 @@
     </row>
     <row r="20" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="A20" s="122"/>
-      <c r="B20" s="248"/>
+      <c r="B20" s="243"/>
       <c r="C20" s="34"/>
       <c r="D20" s="30"/>
-      <c r="E20" s="237"/>
-      <c r="F20" s="241"/>
+      <c r="E20" s="242"/>
+      <c r="F20" s="251"/>
       <c r="G20" s="140" t="s">
         <v>304</v>
       </c>
@@ -7203,15 +7444,15 @@
     </row>
     <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="122"/>
-      <c r="B21" s="248"/>
+      <c r="B21" s="243"/>
       <c r="C21" s="59" t="s">
         <v>212</v>
       </c>
       <c r="D21" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="E21" s="237"/>
-      <c r="F21" s="241"/>
+      <c r="E21" s="242"/>
+      <c r="F21" s="251"/>
       <c r="G21" s="123" t="s">
         <v>213</v>
       </c>
@@ -7221,7 +7462,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="122"/>
-      <c r="B22" s="248" t="s">
+      <c r="B22" s="243" t="s">
         <v>110</v>
       </c>
       <c r="C22" s="57" t="s">
@@ -7230,8 +7471,8 @@
       <c r="D22" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="E22" s="237"/>
-      <c r="F22" s="237" t="s">
+      <c r="E22" s="242"/>
+      <c r="F22" s="242" t="s">
         <v>113</v>
       </c>
       <c r="G22" s="31" t="s">
@@ -7241,15 +7482,15 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="122"/>
-      <c r="B23" s="248"/>
+      <c r="B23" s="243"/>
       <c r="C23" s="57" t="s">
         <v>115</v>
       </c>
       <c r="D23" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="E23" s="237"/>
-      <c r="F23" s="237"/>
+      <c r="E23" s="242"/>
+      <c r="F23" s="242"/>
       <c r="G23" s="57" t="s">
         <v>117</v>
       </c>
@@ -7257,51 +7498,51 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="122"/>
-      <c r="B24" s="237"/>
-      <c r="C24" s="249" t="s">
+      <c r="B24" s="242"/>
+      <c r="C24" s="244" t="s">
         <v>118</v>
       </c>
-      <c r="D24" s="238" t="s">
+      <c r="D24" s="248" t="s">
         <v>310</v>
       </c>
-      <c r="E24" s="237"/>
-      <c r="F24" s="237"/>
-      <c r="G24" s="235" t="s">
+      <c r="E24" s="242"/>
+      <c r="F24" s="242"/>
+      <c r="G24" s="246" t="s">
         <v>119</v>
       </c>
-      <c r="H24" s="237" t="s">
+      <c r="H24" s="242" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="122"/>
-      <c r="B25" s="237"/>
-      <c r="C25" s="250"/>
-      <c r="D25" s="239"/>
-      <c r="E25" s="237"/>
-      <c r="F25" s="237"/>
-      <c r="G25" s="236"/>
-      <c r="H25" s="237"/>
+      <c r="B25" s="242"/>
+      <c r="C25" s="245"/>
+      <c r="D25" s="249"/>
+      <c r="E25" s="242"/>
+      <c r="F25" s="242"/>
+      <c r="G25" s="247"/>
+      <c r="H25" s="242"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="122"/>
-      <c r="B26" s="237"/>
-      <c r="C26" s="250"/>
-      <c r="D26" s="239"/>
-      <c r="E26" s="237"/>
-      <c r="F26" s="237"/>
-      <c r="G26" s="236"/>
-      <c r="H26" s="237"/>
+      <c r="B26" s="242"/>
+      <c r="C26" s="245"/>
+      <c r="D26" s="249"/>
+      <c r="E26" s="242"/>
+      <c r="F26" s="242"/>
+      <c r="G26" s="247"/>
+      <c r="H26" s="242"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="122"/>
-      <c r="B27" s="237"/>
-      <c r="C27" s="250"/>
-      <c r="D27" s="239"/>
-      <c r="E27" s="237"/>
-      <c r="F27" s="237"/>
-      <c r="G27" s="236"/>
-      <c r="H27" s="237"/>
+      <c r="B27" s="242"/>
+      <c r="C27" s="245"/>
+      <c r="D27" s="249"/>
+      <c r="E27" s="242"/>
+      <c r="F27" s="242"/>
+      <c r="G27" s="247"/>
+      <c r="H27" s="242"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="57"/>
@@ -7314,7 +7555,7 @@
       <c r="D28" s="124" t="s">
         <v>270</v>
       </c>
-      <c r="E28" s="237"/>
+      <c r="E28" s="242"/>
       <c r="F28" s="125" t="s">
         <v>271</v>
       </c>
@@ -7337,17 +7578,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="F10:F21"/>
+    <mergeCell ref="F22:F27"/>
     <mergeCell ref="F2:F8"/>
     <mergeCell ref="B2:B8"/>
     <mergeCell ref="E2:E28"/>
     <mergeCell ref="B10:B21"/>
     <mergeCell ref="B22:B27"/>
     <mergeCell ref="C24:C27"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="F10:F21"/>
-    <mergeCell ref="F22:F27"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7359,7 +7600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -7375,15 +7616,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="252" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
-      <c r="E1" s="251"/>
-      <c r="F1" s="251"/>
-      <c r="G1" s="251"/>
+      <c r="B1" s="252"/>
+      <c r="C1" s="252"/>
+      <c r="D1" s="252"/>
+      <c r="E1" s="252"/>
+      <c r="F1" s="252"/>
+      <c r="G1" s="252"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
@@ -7470,72 +7711,72 @@
       <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="258">
+      <c r="A6" s="259">
         <v>4</v>
       </c>
-      <c r="B6" s="259" t="s">
+      <c r="B6" s="260" t="s">
         <v>329</v>
       </c>
-      <c r="C6" s="260" t="s">
+      <c r="C6" s="261" t="s">
         <v>325</v>
       </c>
-      <c r="D6" s="255" t="s">
+      <c r="D6" s="256" t="s">
         <v>328</v>
       </c>
-      <c r="E6" s="261" t="s">
+      <c r="E6" s="262" t="s">
         <v>322</v>
       </c>
-      <c r="F6" s="261" t="s">
+      <c r="F6" s="262" t="s">
         <v>327</v>
       </c>
-      <c r="G6" s="262" t="s">
+      <c r="G6" s="263" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="258"/>
-      <c r="B7" s="259"/>
-      <c r="C7" s="260"/>
-      <c r="D7" s="255"/>
-      <c r="E7" s="261"/>
-      <c r="F7" s="261"/>
-      <c r="G7" s="262"/>
+      <c r="A7" s="259"/>
+      <c r="B7" s="260"/>
+      <c r="C7" s="261"/>
+      <c r="D7" s="256"/>
+      <c r="E7" s="262"/>
+      <c r="F7" s="262"/>
+      <c r="G7" s="263"/>
     </row>
     <row r="8" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="258"/>
-      <c r="B8" s="259"/>
-      <c r="C8" s="260"/>
-      <c r="D8" s="255"/>
-      <c r="E8" s="261"/>
-      <c r="F8" s="261"/>
-      <c r="G8" s="262"/>
+      <c r="A8" s="259"/>
+      <c r="B8" s="260"/>
+      <c r="C8" s="261"/>
+      <c r="D8" s="256"/>
+      <c r="E8" s="262"/>
+      <c r="F8" s="262"/>
+      <c r="G8" s="263"/>
     </row>
     <row r="9" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="258"/>
-      <c r="B9" s="259"/>
-      <c r="C9" s="260"/>
-      <c r="D9" s="255"/>
-      <c r="E9" s="261"/>
-      <c r="F9" s="261"/>
-      <c r="G9" s="262"/>
+      <c r="A9" s="259"/>
+      <c r="B9" s="260"/>
+      <c r="C9" s="261"/>
+      <c r="D9" s="256"/>
+      <c r="E9" s="262"/>
+      <c r="F9" s="262"/>
+      <c r="G9" s="263"/>
     </row>
     <row r="10" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="258"/>
-      <c r="B10" s="259"/>
-      <c r="C10" s="260"/>
-      <c r="D10" s="255"/>
-      <c r="E10" s="261"/>
-      <c r="F10" s="261"/>
-      <c r="G10" s="262"/>
+      <c r="A10" s="259"/>
+      <c r="B10" s="260"/>
+      <c r="C10" s="261"/>
+      <c r="D10" s="256"/>
+      <c r="E10" s="262"/>
+      <c r="F10" s="262"/>
+      <c r="G10" s="263"/>
     </row>
     <row r="11" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="258"/>
-      <c r="B11" s="259"/>
-      <c r="C11" s="260"/>
-      <c r="D11" s="255"/>
-      <c r="E11" s="261"/>
-      <c r="F11" s="261"/>
-      <c r="G11" s="262"/>
+      <c r="A11" s="259"/>
+      <c r="B11" s="260"/>
+      <c r="C11" s="261"/>
+      <c r="D11" s="256"/>
+      <c r="E11" s="262"/>
+      <c r="F11" s="262"/>
+      <c r="G11" s="263"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
@@ -7545,13 +7786,13 @@
       <c r="N11" s="21"/>
     </row>
     <row r="12" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="258"/>
-      <c r="B12" s="259"/>
-      <c r="C12" s="260"/>
-      <c r="D12" s="255"/>
-      <c r="E12" s="261"/>
-      <c r="F12" s="261"/>
-      <c r="G12" s="262"/>
+      <c r="A12" s="259"/>
+      <c r="B12" s="260"/>
+      <c r="C12" s="261"/>
+      <c r="D12" s="256"/>
+      <c r="E12" s="262"/>
+      <c r="F12" s="262"/>
+      <c r="G12" s="263"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
@@ -7561,13 +7802,13 @@
       <c r="N12" s="21"/>
     </row>
     <row r="13" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="258"/>
-      <c r="B13" s="259"/>
-      <c r="C13" s="260"/>
-      <c r="D13" s="255"/>
-      <c r="E13" s="261"/>
-      <c r="F13" s="261"/>
-      <c r="G13" s="262"/>
+      <c r="A13" s="259"/>
+      <c r="B13" s="260"/>
+      <c r="C13" s="261"/>
+      <c r="D13" s="256"/>
+      <c r="E13" s="262"/>
+      <c r="F13" s="262"/>
+      <c r="G13" s="263"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
@@ -7667,12 +7908,12 @@
       <c r="N19" s="21"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B20" s="252"/>
-      <c r="C20" s="254"/>
-      <c r="D20" s="255"/>
+      <c r="B20" s="253"/>
+      <c r="C20" s="255"/>
+      <c r="D20" s="256"/>
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
-      <c r="G20" s="257"/>
+      <c r="G20" s="258"/>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
@@ -7682,12 +7923,12 @@
       <c r="N20" s="21"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B21" s="253"/>
-      <c r="C21" s="255"/>
-      <c r="D21" s="256"/>
+      <c r="B21" s="254"/>
+      <c r="C21" s="256"/>
+      <c r="D21" s="257"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
-      <c r="G21" s="257"/>
+      <c r="G21" s="258"/>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
@@ -7697,12 +7938,12 @@
       <c r="N21" s="21"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B22" s="253"/>
-      <c r="C22" s="255"/>
-      <c r="D22" s="256"/>
+      <c r="B22" s="254"/>
+      <c r="C22" s="256"/>
+      <c r="D22" s="257"/>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
-      <c r="G22" s="257"/>
+      <c r="G22" s="258"/>
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
@@ -7712,12 +7953,12 @@
       <c r="N22" s="21"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B23" s="253"/>
-      <c r="C23" s="255"/>
-      <c r="D23" s="256"/>
+      <c r="B23" s="254"/>
+      <c r="C23" s="256"/>
+      <c r="D23" s="257"/>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
-      <c r="G23" s="257"/>
+      <c r="G23" s="258"/>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
@@ -8006,7 +8247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB597FFD-AA7E-4F1B-8935-A538D904BCD2}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -8038,11 +8279,11 @@
       <c r="E1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="215" t="s">
+      <c r="F1" s="201" t="s">
         <v>283</v>
       </c>
-      <c r="G1" s="215"/>
-      <c r="H1" s="215"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
       <c r="I1" s="51"/>
       <c r="J1" s="51" t="s">
         <v>5</v>
@@ -8055,8 +8296,8 @@
       </c>
     </row>
     <row r="2" spans="1:12" s="163" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="263"/>
-      <c r="B2" s="265" t="s">
+      <c r="A2" s="264"/>
+      <c r="B2" s="266" t="s">
         <v>349</v>
       </c>
       <c r="C2" s="159"/>
@@ -8077,9 +8318,9 @@
       <c r="L2" s="159"/>
     </row>
     <row r="3" spans="1:12" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="264"/>
-      <c r="B3" s="266"/>
-      <c r="C3" s="268" t="s">
+      <c r="A3" s="265"/>
+      <c r="B3" s="267"/>
+      <c r="C3" s="269" t="s">
         <v>353</v>
       </c>
       <c r="D3" s="173" t="s">
@@ -8093,15 +8334,15 @@
       <c r="H3" s="174"/>
       <c r="I3" s="174"/>
       <c r="J3" s="174"/>
-      <c r="K3" s="270" t="s">
+      <c r="K3" s="271" t="s">
         <v>356</v>
       </c>
       <c r="L3" s="162"/>
     </row>
     <row r="4" spans="1:12" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="264"/>
-      <c r="B4" s="266"/>
-      <c r="C4" s="268"/>
+      <c r="A4" s="265"/>
+      <c r="B4" s="267"/>
+      <c r="C4" s="269"/>
       <c r="D4" s="176" t="s">
         <v>357</v>
       </c>
@@ -8113,13 +8354,13 @@
       <c r="H4" s="162"/>
       <c r="I4" s="162"/>
       <c r="J4" s="162"/>
-      <c r="K4" s="270"/>
+      <c r="K4" s="271"/>
       <c r="L4" s="162"/>
     </row>
     <row r="5" spans="1:12" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="264"/>
-      <c r="B5" s="266"/>
-      <c r="C5" s="268"/>
+      <c r="A5" s="265"/>
+      <c r="B5" s="267"/>
+      <c r="C5" s="269"/>
       <c r="D5" s="176" t="s">
         <v>359</v>
       </c>
@@ -8131,13 +8372,13 @@
       <c r="H5" s="162"/>
       <c r="I5" s="162"/>
       <c r="J5" s="162"/>
-      <c r="K5" s="270"/>
+      <c r="K5" s="271"/>
       <c r="L5" s="162"/>
     </row>
     <row r="6" spans="1:12" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="264"/>
-      <c r="B6" s="266"/>
-      <c r="C6" s="268"/>
+      <c r="A6" s="265"/>
+      <c r="B6" s="267"/>
+      <c r="C6" s="269"/>
       <c r="D6" s="176" t="s">
         <v>361</v>
       </c>
@@ -8149,13 +8390,13 @@
       <c r="H6" s="162"/>
       <c r="I6" s="162"/>
       <c r="J6" s="162"/>
-      <c r="K6" s="270"/>
+      <c r="K6" s="271"/>
       <c r="L6" s="162"/>
     </row>
     <row r="7" spans="1:12" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="264"/>
-      <c r="B7" s="266"/>
-      <c r="C7" s="268"/>
+      <c r="A7" s="265"/>
+      <c r="B7" s="267"/>
+      <c r="C7" s="269"/>
       <c r="D7" s="176" t="s">
         <v>363</v>
       </c>
@@ -8167,13 +8408,13 @@
       <c r="H7" s="162"/>
       <c r="I7" s="162"/>
       <c r="J7" s="162"/>
-      <c r="K7" s="270"/>
+      <c r="K7" s="271"/>
       <c r="L7" s="162"/>
     </row>
     <row r="8" spans="1:12" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="264"/>
-      <c r="B8" s="266"/>
-      <c r="C8" s="268"/>
+      <c r="A8" s="265"/>
+      <c r="B8" s="267"/>
+      <c r="C8" s="269"/>
       <c r="D8" s="176" t="s">
         <v>365</v>
       </c>
@@ -8185,13 +8426,13 @@
       <c r="H8" s="162"/>
       <c r="I8" s="162"/>
       <c r="J8" s="162"/>
-      <c r="K8" s="270"/>
+      <c r="K8" s="271"/>
       <c r="L8" s="162"/>
     </row>
     <row r="9" spans="1:12" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="264"/>
-      <c r="B9" s="266"/>
-      <c r="C9" s="268"/>
+      <c r="A9" s="265"/>
+      <c r="B9" s="267"/>
+      <c r="C9" s="269"/>
       <c r="D9" s="176" t="s">
         <v>367</v>
       </c>
@@ -8203,13 +8444,13 @@
       <c r="H9" s="162"/>
       <c r="I9" s="162"/>
       <c r="J9" s="162"/>
-      <c r="K9" s="270"/>
+      <c r="K9" s="271"/>
       <c r="L9" s="162"/>
     </row>
     <row r="10" spans="1:12" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="264"/>
-      <c r="B10" s="266"/>
-      <c r="C10" s="268"/>
+      <c r="A10" s="265"/>
+      <c r="B10" s="267"/>
+      <c r="C10" s="269"/>
       <c r="D10" s="176" t="s">
         <v>369</v>
       </c>
@@ -8221,13 +8462,13 @@
       <c r="H10" s="162"/>
       <c r="I10" s="162"/>
       <c r="J10" s="162"/>
-      <c r="K10" s="270"/>
+      <c r="K10" s="271"/>
       <c r="L10" s="162"/>
     </row>
     <row r="11" spans="1:12" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="264"/>
-      <c r="B11" s="266"/>
-      <c r="C11" s="268"/>
+      <c r="A11" s="265"/>
+      <c r="B11" s="267"/>
+      <c r="C11" s="269"/>
       <c r="D11" s="176" t="s">
         <v>371</v>
       </c>
@@ -8239,13 +8480,13 @@
       <c r="H11" s="162"/>
       <c r="I11" s="162"/>
       <c r="J11" s="162"/>
-      <c r="K11" s="270"/>
+      <c r="K11" s="271"/>
       <c r="L11" s="162"/>
     </row>
     <row r="12" spans="1:12" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="200"/>
-      <c r="B12" s="266"/>
-      <c r="C12" s="269"/>
+      <c r="A12" s="232"/>
+      <c r="B12" s="267"/>
+      <c r="C12" s="270"/>
       <c r="D12" s="176" t="s">
         <v>373</v>
       </c>
@@ -8257,13 +8498,13 @@
       <c r="H12" s="162"/>
       <c r="I12" s="162"/>
       <c r="J12" s="162"/>
-      <c r="K12" s="270"/>
+      <c r="K12" s="271"/>
       <c r="L12" s="162"/>
     </row>
     <row r="13" spans="1:12" s="177" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="278"/>
-      <c r="B13" s="266"/>
-      <c r="C13" s="271" t="s">
+      <c r="A13" s="279"/>
+      <c r="B13" s="267"/>
+      <c r="C13" s="272" t="s">
         <v>375</v>
       </c>
       <c r="D13" s="178" t="s">
@@ -8272,180 +8513,180 @@
       <c r="E13" s="179" t="s">
         <v>377</v>
       </c>
-      <c r="F13" s="274" t="s">
+      <c r="F13" s="275" t="s">
         <v>378</v>
       </c>
-      <c r="G13" s="271" t="s">
+      <c r="G13" s="272" t="s">
         <v>379</v>
       </c>
       <c r="H13" s="180"/>
       <c r="I13" s="180"/>
       <c r="J13" s="180"/>
-      <c r="K13" s="274" t="s">
+      <c r="K13" s="275" t="s">
         <v>380</v>
       </c>
       <c r="L13" s="180"/>
     </row>
     <row r="14" spans="1:12" s="177" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="277"/>
-      <c r="B14" s="266"/>
-      <c r="C14" s="272"/>
+      <c r="A14" s="278"/>
+      <c r="B14" s="267"/>
+      <c r="C14" s="273"/>
       <c r="D14" s="178" t="s">
         <v>381</v>
       </c>
       <c r="E14" s="179" t="s">
         <v>382</v>
       </c>
-      <c r="F14" s="275"/>
-      <c r="G14" s="277"/>
+      <c r="F14" s="276"/>
+      <c r="G14" s="278"/>
       <c r="H14" s="180"/>
       <c r="I14" s="180"/>
       <c r="J14" s="180"/>
-      <c r="K14" s="275"/>
+      <c r="K14" s="276"/>
       <c r="L14" s="180"/>
     </row>
     <row r="15" spans="1:12" s="177" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="277"/>
-      <c r="B15" s="266"/>
-      <c r="C15" s="272"/>
+      <c r="A15" s="278"/>
+      <c r="B15" s="267"/>
+      <c r="C15" s="273"/>
       <c r="D15" s="178" t="s">
         <v>383</v>
       </c>
       <c r="E15" s="179" t="s">
         <v>384</v>
       </c>
-      <c r="F15" s="275"/>
-      <c r="G15" s="277"/>
+      <c r="F15" s="276"/>
+      <c r="G15" s="278"/>
       <c r="H15" s="180"/>
       <c r="I15" s="180"/>
       <c r="J15" s="180"/>
-      <c r="K15" s="275"/>
+      <c r="K15" s="276"/>
       <c r="L15" s="180"/>
     </row>
     <row r="16" spans="1:12" s="177" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="277"/>
-      <c r="B16" s="266"/>
-      <c r="C16" s="272"/>
+      <c r="A16" s="278"/>
+      <c r="B16" s="267"/>
+      <c r="C16" s="273"/>
       <c r="D16" s="178" t="s">
         <v>385</v>
       </c>
       <c r="E16" s="179" t="s">
         <v>386</v>
       </c>
-      <c r="F16" s="275"/>
-      <c r="G16" s="277"/>
+      <c r="F16" s="276"/>
+      <c r="G16" s="278"/>
       <c r="H16" s="180"/>
       <c r="I16" s="180"/>
       <c r="J16" s="180"/>
-      <c r="K16" s="275"/>
+      <c r="K16" s="276"/>
       <c r="L16" s="180"/>
     </row>
     <row r="17" spans="1:12" s="177" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="277"/>
-      <c r="B17" s="266"/>
-      <c r="C17" s="272"/>
+      <c r="A17" s="278"/>
+      <c r="B17" s="267"/>
+      <c r="C17" s="273"/>
       <c r="D17" s="178" t="s">
         <v>387</v>
       </c>
       <c r="E17" s="179" t="s">
         <v>388</v>
       </c>
-      <c r="F17" s="275"/>
-      <c r="G17" s="277"/>
+      <c r="F17" s="276"/>
+      <c r="G17" s="278"/>
       <c r="H17" s="180"/>
       <c r="I17" s="180"/>
       <c r="J17" s="180"/>
-      <c r="K17" s="275"/>
+      <c r="K17" s="276"/>
       <c r="L17" s="180"/>
     </row>
     <row r="18" spans="1:12" s="177" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="277"/>
-      <c r="B18" s="266"/>
-      <c r="C18" s="272"/>
+      <c r="A18" s="278"/>
+      <c r="B18" s="267"/>
+      <c r="C18" s="273"/>
       <c r="D18" s="178" t="s">
         <v>389</v>
       </c>
       <c r="E18" s="179" t="s">
         <v>390</v>
       </c>
-      <c r="F18" s="275"/>
-      <c r="G18" s="277"/>
+      <c r="F18" s="276"/>
+      <c r="G18" s="278"/>
       <c r="H18" s="180"/>
       <c r="I18" s="180"/>
       <c r="J18" s="180"/>
-      <c r="K18" s="275"/>
+      <c r="K18" s="276"/>
       <c r="L18" s="180"/>
     </row>
     <row r="19" spans="1:12" s="177" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="277"/>
-      <c r="B19" s="266"/>
-      <c r="C19" s="272"/>
+      <c r="A19" s="278"/>
+      <c r="B19" s="267"/>
+      <c r="C19" s="273"/>
       <c r="D19" s="178" t="s">
         <v>391</v>
       </c>
       <c r="E19" s="179" t="s">
         <v>392</v>
       </c>
-      <c r="F19" s="275"/>
-      <c r="G19" s="277"/>
+      <c r="F19" s="276"/>
+      <c r="G19" s="278"/>
       <c r="H19" s="180"/>
       <c r="I19" s="180"/>
       <c r="J19" s="180"/>
-      <c r="K19" s="275"/>
+      <c r="K19" s="276"/>
       <c r="L19" s="180"/>
     </row>
     <row r="20" spans="1:12" s="177" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="277"/>
-      <c r="B20" s="266"/>
-      <c r="C20" s="272"/>
+      <c r="A20" s="278"/>
+      <c r="B20" s="267"/>
+      <c r="C20" s="273"/>
       <c r="D20" s="178" t="s">
         <v>369</v>
       </c>
       <c r="E20" s="179" t="s">
         <v>393</v>
       </c>
-      <c r="F20" s="275"/>
-      <c r="G20" s="277"/>
+      <c r="F20" s="276"/>
+      <c r="G20" s="278"/>
       <c r="H20" s="180"/>
       <c r="I20" s="180"/>
       <c r="J20" s="180"/>
-      <c r="K20" s="275"/>
+      <c r="K20" s="276"/>
       <c r="L20" s="180"/>
     </row>
     <row r="21" spans="1:12" s="177" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="277"/>
-      <c r="B21" s="266"/>
-      <c r="C21" s="272"/>
+      <c r="A21" s="278"/>
+      <c r="B21" s="267"/>
+      <c r="C21" s="273"/>
       <c r="D21" s="178" t="s">
         <v>394</v>
       </c>
       <c r="E21" s="179" t="s">
         <v>395</v>
       </c>
-      <c r="F21" s="275"/>
-      <c r="G21" s="277"/>
+      <c r="F21" s="276"/>
+      <c r="G21" s="278"/>
       <c r="H21" s="180"/>
       <c r="I21" s="180"/>
       <c r="J21" s="180"/>
-      <c r="K21" s="275"/>
+      <c r="K21" s="276"/>
       <c r="L21" s="180"/>
     </row>
     <row r="22" spans="1:12" s="177" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="273"/>
-      <c r="B22" s="267"/>
-      <c r="C22" s="273"/>
+      <c r="A22" s="274"/>
+      <c r="B22" s="268"/>
+      <c r="C22" s="274"/>
       <c r="D22" s="178" t="s">
         <v>373</v>
       </c>
       <c r="E22" s="179" t="s">
         <v>396</v>
       </c>
-      <c r="F22" s="276"/>
-      <c r="G22" s="273"/>
+      <c r="F22" s="277"/>
+      <c r="G22" s="274"/>
       <c r="H22" s="180"/>
       <c r="I22" s="180"/>
       <c r="J22" s="180"/>
-      <c r="K22" s="276"/>
+      <c r="K22" s="277"/>
       <c r="L22" s="180"/>
     </row>
     <row r="23" spans="1:12" s="181" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
